--- a/doc/wiring.xlsx
+++ b/doc/wiring.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="84">
   <si>
     <t>Wiring Connections</t>
   </si>
@@ -131,9 +131,6 @@
     <t>RH signal</t>
   </si>
   <si>
-    <t>DIFF 3H</t>
-  </si>
-  <si>
     <t>signal reference</t>
   </si>
   <si>
@@ -147,9 +144,6 @@
   </si>
   <si>
     <t>net rad signal</t>
-  </si>
-  <si>
-    <t>DIFF 4H</t>
   </si>
   <si>
     <t>PAR signal</t>
@@ -249,19 +243,7 @@
     <t>sensor signal</t>
   </si>
   <si>
-    <t>DIFF 6H</t>
-  </si>
-  <si>
     <t>sensor reference</t>
-  </si>
-  <si>
-    <t>DIFF 6L</t>
-  </si>
-  <si>
-    <t>DIFF 7H</t>
-  </si>
-  <si>
-    <t>DIFF 7L</t>
   </si>
   <si>
     <t>Soil T/VWC probes
@@ -286,19 +268,37 @@
     <t>DIFF 8H</t>
   </si>
   <si>
-    <t>DIFF 8L</t>
-  </si>
-  <si>
-    <t>DIFF 4L + earth (⏚)</t>
-  </si>
-  <si>
-    <t>DIFF 2L + DIFF 3L</t>
-  </si>
-  <si>
-    <t>DIFF 5L + earth (⏚)</t>
-  </si>
-  <si>
     <t>Supporting Hardware</t>
+  </si>
+  <si>
+    <t>DIFF 1H</t>
+  </si>
+  <si>
+    <t>DIFF 1L</t>
+  </si>
+  <si>
+    <t>DIFF 2L</t>
+  </si>
+  <si>
+    <t>DIFF 10H</t>
+  </si>
+  <si>
+    <t>DIFF 10L + earth (⏚)</t>
+  </si>
+  <si>
+    <t>DIFF 5L</t>
+  </si>
+  <si>
+    <t>DIFF 11H</t>
+  </si>
+  <si>
+    <t>DIFF 11L + earth (⏚)</t>
+  </si>
+  <si>
+    <t>DIFF 9H</t>
+  </si>
+  <si>
+    <t>DIFF 8L + DIFF 9L</t>
   </si>
 </sst>
 </file>
@@ -767,7 +767,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +775,7 @@
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="1.7109375" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
@@ -801,14 +801,14 @@
     </row>
     <row r="2" spans="1:11" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="G2" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
@@ -829,7 +829,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>1</v>
@@ -844,12 +844,12 @@
         <v>4</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -861,13 +861,16 @@
         <v>7</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -885,8 +888,11 @@
       <c r="H5" t="s">
         <v>19</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J5" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -904,6 +910,9 @@
       <c r="H6" t="s">
         <v>20</v>
       </c>
+      <c r="I6" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="J6" s="14" t="s">
         <v>16</v>
       </c>
@@ -919,18 +928,19 @@
       <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
@@ -943,16 +953,17 @@
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="G8" s="20"/>
+      <c r="H8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="J8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
@@ -963,21 +974,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>64</v>
-      </c>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
@@ -988,27 +1000,27 @@
         <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" t="s">
         <v>65</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" t="s">
-        <v>67</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>21</v>
@@ -1022,13 +1034,13 @@
       <c r="E11" s="6"/>
       <c r="G11" s="17"/>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1051,7 +1063,7 @@
         <v>18</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1063,21 +1075,22 @@
         <v>9</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E13" s="6"/>
-      <c r="G13" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="G13" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
@@ -1091,16 +1104,17 @@
         <v>28</v>
       </c>
       <c r="E14" s="6"/>
-      <c r="G14" s="17"/>
-      <c r="H14" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="G14" s="20"/>
+      <c r="H14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="6" t="s">
         <v>79</v>
       </c>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
@@ -1111,7 +1125,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E15" s="6"/>
     </row>
@@ -1124,13 +1138,13 @@
         <v>18</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
@@ -1139,7 +1153,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1151,19 +1165,19 @@
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1175,7 +1189,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1199,25 +1213,25 @@
         <v>18</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E23" s="6"/>
       <c r="G23" s="16" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
@@ -1227,13 +1241,13 @@
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E24" s="6"/>
       <c r="G24" s="2" t="s">
@@ -1249,7 +1263,7 @@
         <v>4</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1261,35 +1275,35 @@
         <v>15</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E25" s="6"/>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1301,34 +1315,34 @@
         <v>18</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E30" s="6"/>
     </row>
@@ -1341,46 +1355,46 @@
         <v>18</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1392,7 +1406,7 @@
         <v>18</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1404,7 +1418,7 @@
         <v>12</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1422,7 +1436,7 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>

--- a/doc/wiring.xlsx
+++ b/doc/wiring.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="84">
-  <si>
-    <t>Wiring Connections</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="81">
   <si>
     <t>Description</t>
   </si>
@@ -92,9 +89,6 @@
     <t>WD signal</t>
   </si>
   <si>
-    <t>SE 1</t>
-  </si>
-  <si>
     <t>WD excitation</t>
   </si>
   <si>
@@ -152,22 +146,13 @@
     <t>DIFF 5H</t>
   </si>
   <si>
-    <t>C5</t>
-  </si>
-  <si>
     <t>msg trasmit (TX)</t>
   </si>
   <si>
-    <t>COM 4 Rx</t>
-  </si>
-  <si>
     <t xml:space="preserve">PPS </t>
   </si>
   <si>
     <t>gray</t>
-  </si>
-  <si>
-    <t>COM 4 Tx</t>
   </si>
   <si>
     <t>receive data (RX)</t>
@@ -196,27 +181,11 @@
 (034B)</t>
   </si>
   <si>
-    <t>Core sensor suite</t>
-  </si>
-  <si>
     <t>Optional sensors</t>
-  </si>
-  <si>
-    <t>Rain tipping bucket
-(TE525WS)</t>
   </si>
   <si>
     <t>Anemometer/IRGA control box
 (EC100)</t>
-  </si>
-  <si>
-    <t>12VDC</t>
-  </si>
-  <si>
-    <t>+12V</t>
-  </si>
-  <si>
-    <t>GND</t>
   </si>
   <si>
     <r>
@@ -234,12 +203,6 @@
     </r>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>SDI data</t>
-  </si>
-  <si>
     <t>sensor signal</t>
   </si>
   <si>
@@ -268,9 +231,6 @@
     <t>DIFF 8H</t>
   </si>
   <si>
-    <t>Supporting Hardware</t>
-  </si>
-  <si>
     <t>DIFF 1H</t>
   </si>
   <si>
@@ -299,6 +259,37 @@
   </si>
   <si>
     <t>DIFF 8L + DIFF 9L</t>
+  </si>
+  <si>
+    <t>SE 23</t>
+  </si>
+  <si>
+    <t>COM 2 Rx</t>
+  </si>
+  <si>
+    <t>COM 2 Tx</t>
+  </si>
+  <si>
+    <t>use +12V rail</t>
+  </si>
+  <si>
+    <t>use -G rail</t>
+  </si>
+  <si>
+    <t>Datalogger Wiring Table</t>
+  </si>
+  <si>
+    <t>Core sensors</t>
+  </si>
+  <si>
+    <t>Tipping bucket
+(TE525WS)</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>SDI data (#1)</t>
   </si>
 </sst>
 </file>
@@ -417,7 +408,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -426,16 +417,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -457,23 +442,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -764,10 +752,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,686 +764,642 @@
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="1.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="0.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="F2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-    </row>
-    <row r="2" spans="1:11" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="G2" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>59</v>
+      <c r="F3" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" t="s">
-        <v>64</v>
+      <c r="F4" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="17"/>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F5" s="15"/>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F6" s="15"/>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>68</v>
+      <c r="F7" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="20"/>
+        <v>15</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="H8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="20"/>
+        <v>11</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="H9" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="G11" s="17"/>
-      <c r="H11" t="s">
+      <c r="H14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="G12" s="17"/>
-      <c r="H12" t="s">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="G13" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
-      <c r="B19" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>9</v>
+      <c r="B19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H21"/>
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="G23" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="G24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>52</v>
       </c>
+      <c r="H22"/>
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24"/>
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25"/>
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="H26"/>
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
-      <c r="B27" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>15</v>
+      <c r="B27" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="H27"/>
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="B31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="D38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G13:G14"/>
+  <mergeCells count="14">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="A32:A38"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F7:F9"/>
     <mergeCell ref="A4:A10"/>
     <mergeCell ref="A11:A16"/>
     <mergeCell ref="A17:A22"/>
@@ -1465,6 +1409,6 @@
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup scale="92" orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="79" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/wiring.xlsx
+++ b/doc/wiring.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="86">
   <si>
     <t>Description</t>
   </si>
@@ -290,6 +290,21 @@
   </si>
   <si>
     <t>SDI data (#1)</t>
+  </si>
+  <si>
+    <t>Encl. door sensor</t>
+  </si>
+  <si>
+    <t>state detect</t>
+  </si>
+  <si>
+    <t>excitation</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>5V</t>
   </si>
 </sst>
 </file>
@@ -755,7 +770,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,6 +1104,18 @@
       <c r="D15" s="6" t="s">
         <v>52</v>
       </c>
+      <c r="F15" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
@@ -1101,6 +1128,16 @@
       <c r="D16" s="6" t="s">
         <v>52</v>
       </c>
+      <c r="F16" s="19"/>
+      <c r="G16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
@@ -1391,7 +1428,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="F13:F14"/>
@@ -1406,6 +1443,7 @@
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A29:A31"/>
+    <mergeCell ref="F15:F16"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
